--- a/contentCompiler/src/datasets/dataset.xlsx
+++ b/contentCompiler/src/datasets/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\Leerlijn-Content-SE-teun\.github\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\ContentCompiler\contentCompiler\src\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF87AA7D-1C30-4801-96FD-0FF1D4556084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E24F5F-4B6A-4C6D-8402-07FB534CF9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
+    <workbookView xWindow="38280" yWindow="5355" windowWidth="29040" windowHeight="16440" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="179">
   <si>
     <t>Id</t>
   </si>
@@ -100,21 +100,24 @@
     <t>Gebruiken beheersysteem</t>
   </si>
   <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>X,X,X</t>
+  </si>
+  <si>
+    <t>Teun</t>
+  </si>
+  <si>
+    <t>Ward &amp; Martijn</t>
+  </si>
+  <si>
+    <t>Doorgevoerd</t>
+  </si>
+  <si>
     <t>Git-Repositories</t>
   </si>
   <si>
-    <t>X,X,X</t>
-  </si>
-  <si>
-    <t>Teun</t>
-  </si>
-  <si>
-    <t>Ward &amp; Martijn</t>
-  </si>
-  <si>
-    <t>Doorgevoerd</t>
-  </si>
-  <si>
     <t>Git-Branches</t>
   </si>
   <si>
@@ -169,398 +172,416 @@
     <t>Jasper</t>
   </si>
   <si>
+    <t>In pull request</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-For</t>
+  </si>
+  <si>
+    <t>Jorrick</t>
+  </si>
+  <si>
     <t>Branch</t>
   </si>
   <si>
-    <t>Controlestructuur-Herhaling-For</t>
-  </si>
-  <si>
-    <t>Jorrick</t>
+    <t>Controlestructuur-Herhaling-While</t>
+  </si>
+  <si>
+    <t>Ward &amp; Teun &amp; Martijn</t>
+  </si>
+  <si>
+    <t>X,X,3</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-Recursie</t>
+  </si>
+  <si>
+    <t>Ties</t>
+  </si>
+  <si>
+    <t>On hold</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-Break-Continue-Return</t>
+  </si>
+  <si>
+    <t>Jeroen</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Uitzonderingen-Try-Catch-Finally</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Resources-Using</t>
+  </si>
+  <si>
+    <t>Eltjo</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Asynchroon-Async</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Asynchroon-Await</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Pattern-Matching-Object-is-type</t>
+  </si>
+  <si>
+    <t>Datatype-Declaratie-en-Initialisatie</t>
+  </si>
+  <si>
+    <t>Jeroen &amp; Jorrick</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Integer</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Float</t>
+  </si>
+  <si>
+    <t>Bas &amp; Jorrick</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Double</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Boolean</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Char</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Byte</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Long</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Uint</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-ULong</t>
+  </si>
+  <si>
+    <t>Datatype-String</t>
+  </si>
+  <si>
+    <t>Datastructuur-Array</t>
+  </si>
+  <si>
+    <t>Datastructuur-Tupel</t>
+  </si>
+  <si>
+    <t>Datastructuur-List</t>
+  </si>
+  <si>
+    <t>Datastructuur-Set</t>
+  </si>
+  <si>
+    <t>Datastructuur-Dictionary</t>
+  </si>
+  <si>
+    <t>Datastructuur-Queue</t>
+  </si>
+  <si>
+    <t>Datastructuur-Hashset</t>
+  </si>
+  <si>
+    <t>Datastructuur-Stack</t>
+  </si>
+  <si>
+    <t>Event-Delegate</t>
+  </si>
+  <si>
+    <t>Datastructuur-Linkedlist</t>
+  </si>
+  <si>
+    <t>Datastructuur-PriorityQueue</t>
+  </si>
+  <si>
+    <t>Datatype-Struct</t>
+  </si>
+  <si>
+    <t>Datatype-Null</t>
+  </si>
+  <si>
+    <t>oo-15</t>
+  </si>
+  <si>
+    <t>Ontwerpproces</t>
+  </si>
+  <si>
+    <t>Opstellen ontwerp</t>
+  </si>
+  <si>
+    <t>Klassendiagram</t>
+  </si>
+  <si>
+    <t>Bart</t>
+  </si>
+  <si>
+    <t>Eltjo &amp; Teun</t>
+  </si>
+  <si>
+    <t>io-28</t>
+  </si>
+  <si>
+    <t>Oplossen fouten</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>X,2,X</t>
+  </si>
+  <si>
+    <t>Ernst</t>
+  </si>
+  <si>
+    <t>Eugène</t>
+  </si>
+  <si>
+    <t>Use-Cases</t>
+  </si>
+  <si>
+    <t>z16</t>
+  </si>
+  <si>
+    <t>bb-25</t>
+  </si>
+  <si>
+    <t>Beschikbaarstellen software</t>
+  </si>
+  <si>
+    <t>OTAP-acceptatietest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernst &amp; Martijn </t>
+  </si>
+  <si>
+    <t>n43</t>
+  </si>
+  <si>
+    <t>ii-18</t>
+  </si>
+  <si>
+    <t>Inrichten ontwikkelomgeving</t>
+  </si>
+  <si>
+    <t>IDE-setup-en-build</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Martijn &amp; Teun</t>
+  </si>
+  <si>
+    <t>z11,z22</t>
+  </si>
+  <si>
+    <t>Branching-strategiën</t>
+  </si>
+  <si>
+    <t>Gitflow</t>
+  </si>
+  <si>
+    <t>n38</t>
+  </si>
+  <si>
+    <t>ta-6</t>
+  </si>
+  <si>
+    <t>Testproces</t>
+  </si>
+  <si>
+    <t>Adviseren testproces</t>
+  </si>
+  <si>
+    <t>Teststrategie</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Ties</t>
+  </si>
+  <si>
+    <t>Martijn</t>
+  </si>
+  <si>
+    <t>z1</t>
+  </si>
+  <si>
+    <t>tu-4</t>
+  </si>
+  <si>
+    <t>Uitvoeren test</t>
+  </si>
+  <si>
+    <t>Functioneel-Testen</t>
+  </si>
+  <si>
+    <t>z9</t>
+  </si>
+  <si>
+    <t>SSDLC</t>
+  </si>
+  <si>
+    <t>Taxonomiecode-deel-1</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Uitvoeren configuratie-, change- en releasemangement</t>
+  </si>
+  <si>
+    <t>bu-27</t>
+  </si>
+  <si>
+    <t>Evalueren ontwikkelstraat</t>
+  </si>
+  <si>
+    <t>be-26</t>
+  </si>
+  <si>
+    <t>Beheren ontwikkelstraat</t>
+  </si>
+  <si>
+    <t>bb-23</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Evalueren test</t>
+  </si>
+  <si>
+    <t>te-5</t>
+  </si>
+  <si>
+    <t>Opstellen test</t>
+  </si>
+  <si>
+    <t>to-3</t>
+  </si>
+  <si>
+    <t>Opstellen testontwerp</t>
+  </si>
+  <si>
+    <t>to-2</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Beredeneren bouwkeuzes</t>
+  </si>
+  <si>
+    <t>ib-21</t>
+  </si>
+  <si>
+    <t>Refactoren applicatie</t>
+  </si>
+  <si>
+    <t>ir-20</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Adviseren architectuur</t>
+  </si>
+  <si>
+    <t>oa-17</t>
+  </si>
+  <si>
+    <t>Pakketselectieproces</t>
+  </si>
+  <si>
+    <t>Adviseren onderdeelselectie</t>
+  </si>
+  <si>
+    <t>pa-14</t>
+  </si>
+  <si>
+    <t>Vaststellen kwaliteit</t>
+  </si>
+  <si>
+    <t>ov-16</t>
+  </si>
+  <si>
+    <t>Opstellen teststrategie</t>
+  </si>
+  <si>
+    <t>to-1</t>
+  </si>
+  <si>
+    <t>Uitvoeren analyse</t>
+  </si>
+  <si>
+    <t>pu-13</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Requirementsanalyseproces</t>
+  </si>
+  <si>
+    <t>Beheren requirements</t>
+  </si>
+  <si>
+    <t>rb-12</t>
+  </si>
+  <si>
+    <t>Valideren requirements</t>
+  </si>
+  <si>
+    <t>rv-11</t>
+  </si>
+  <si>
+    <t>Specifieren requirements</t>
+  </si>
+  <si>
+    <t>rs-10</t>
+  </si>
+  <si>
+    <t>Analyseren requirements</t>
+  </si>
+  <si>
+    <t>ra-9</t>
+  </si>
+  <si>
+    <t>Verzamelen requirements</t>
+  </si>
+  <si>
+    <t>rv-8</t>
+  </si>
+  <si>
+    <t>Definiëren probleemdomein</t>
+  </si>
+  <si>
+    <t>rd-7</t>
+  </si>
+  <si>
+    <t>Overkoepelend</t>
+  </si>
+  <si>
+    <t>Managen ontwikkelproces</t>
+  </si>
+  <si>
+    <t>bm-22</t>
+  </si>
+  <si>
+    <t>Status opties</t>
+  </si>
+  <si>
+    <t>Prioriteit opties</t>
   </si>
   <si>
     <t>Open</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Herhaling-While</t>
-  </si>
-  <si>
-    <t>Ward &amp; Teun &amp; Martijn</t>
-  </si>
-  <si>
-    <t>X,X,3</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Herhaling-Recursie</t>
-  </si>
-  <si>
-    <t>Ties</t>
-  </si>
-  <si>
-    <t>On hold</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Herhaling-Break-Continue-Return</t>
-  </si>
-  <si>
-    <t>Jeroen</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Uitzonderingen-Try-Catch-Finally</t>
-  </si>
-  <si>
-    <t>Stefan</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Resources-Using</t>
-  </si>
-  <si>
-    <t>Eltjo</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Asynchroon-Async</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Asynchroon-Await</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Pattern-Matching-Object-is-type</t>
-  </si>
-  <si>
-    <t>Datatype-Declaratie-en-Initialisatie</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Integer</t>
-  </si>
-  <si>
-    <t>In pull request</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Float</t>
-  </si>
-  <si>
-    <t>Bas</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Double</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Boolean</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Char</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Byte</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Long</t>
-  </si>
-  <si>
-    <t>X &amp; Teun &amp; Martijn</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Uint</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Ulong</t>
-  </si>
-  <si>
-    <t>Datatype-String</t>
-  </si>
-  <si>
-    <t>Datastructuur-Array</t>
-  </si>
-  <si>
-    <t>Datastructuur-Tupel</t>
-  </si>
-  <si>
-    <t>Datastructuur-List</t>
-  </si>
-  <si>
-    <t>Datastructuur-Set</t>
-  </si>
-  <si>
-    <t>Datastructuur-Dictionary</t>
-  </si>
-  <si>
-    <t>Datastructuur-Queue</t>
-  </si>
-  <si>
-    <t>Datastructuur-Hashset</t>
-  </si>
-  <si>
-    <t>Datastructuur-Stack</t>
-  </si>
-  <si>
-    <t>Event-Delegate</t>
-  </si>
-  <si>
-    <t>Datastructuur-Linkedlist</t>
-  </si>
-  <si>
-    <t>Datastructuur-PriorityQueue</t>
-  </si>
-  <si>
-    <t>Datatype-Struct</t>
-  </si>
-  <si>
-    <t>Datatype-Null</t>
-  </si>
-  <si>
-    <t>oo-15</t>
-  </si>
-  <si>
-    <t>Ontwerpproces</t>
-  </si>
-  <si>
-    <t>Opstellen ontwerp</t>
-  </si>
-  <si>
-    <t>Klassendiagram</t>
-  </si>
-  <si>
-    <t>Bart</t>
-  </si>
-  <si>
-    <t>Eltjo &amp; Teun</t>
-  </si>
-  <si>
-    <t>io-28</t>
-  </si>
-  <si>
-    <t>Oplossen fouten</t>
-  </si>
-  <si>
-    <t>Debugging</t>
-  </si>
-  <si>
-    <t>X,2,X</t>
-  </si>
-  <si>
-    <t>Ernst</t>
-  </si>
-  <si>
-    <t>Eugène</t>
-  </si>
-  <si>
-    <t>Use-Cases</t>
-  </si>
-  <si>
-    <t>z16</t>
-  </si>
-  <si>
-    <t>bb-25</t>
-  </si>
-  <si>
-    <t>Beschikbaarstellen software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ernst &amp; Martijn </t>
-  </si>
-  <si>
-    <t>n43</t>
-  </si>
-  <si>
-    <t>ii-18</t>
-  </si>
-  <si>
-    <t>Inrichten ontwikkelomgeving</t>
-  </si>
-  <si>
-    <t>IDE-setup-en-build</t>
-  </si>
-  <si>
-    <t>Ernst &amp; Martijn &amp; Teun</t>
-  </si>
-  <si>
-    <t>z11,z22</t>
-  </si>
-  <si>
-    <t>SSDLC</t>
-  </si>
-  <si>
-    <t>Taxonomiecode-deel-1</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>Testproces</t>
-  </si>
-  <si>
-    <t>Adviseren testproces</t>
-  </si>
-  <si>
-    <t>ta-6</t>
-  </si>
-  <si>
-    <t>Uitvoeren configuratie-, change- en releasemangement</t>
-  </si>
-  <si>
-    <t>bu-27</t>
-  </si>
-  <si>
-    <t>Evalueren ontwikkelstraat</t>
-  </si>
-  <si>
-    <t>be-26</t>
-  </si>
-  <si>
-    <t>Beheren ontwikkelstraat</t>
-  </si>
-  <si>
-    <t>bb-23</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Evalueren test</t>
-  </si>
-  <si>
-    <t>te-5</t>
-  </si>
-  <si>
-    <t>Uitvoeren test</t>
-  </si>
-  <si>
-    <t>tu-4</t>
-  </si>
-  <si>
-    <t>Opstellen test</t>
-  </si>
-  <si>
-    <t>to-3</t>
-  </si>
-  <si>
-    <t>Opstellen testontwerp</t>
-  </si>
-  <si>
-    <t>to-2</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>Beredeneren bouwkeuzes</t>
-  </si>
-  <si>
-    <t>ib-21</t>
-  </si>
-  <si>
-    <t>Refactoren applicatie</t>
-  </si>
-  <si>
-    <t>ir-20</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Adviseren architectuur</t>
-  </si>
-  <si>
-    <t>oa-17</t>
-  </si>
-  <si>
-    <t>Pakketselectieproces</t>
-  </si>
-  <si>
-    <t>Adviseren onderdeelselectie</t>
-  </si>
-  <si>
-    <t>pa-14</t>
-  </si>
-  <si>
-    <t>Vaststellen kwaliteit</t>
-  </si>
-  <si>
-    <t>ov-16</t>
-  </si>
-  <si>
-    <t>Opstellen teststrategie</t>
-  </si>
-  <si>
-    <t>to-1</t>
-  </si>
-  <si>
-    <t>Uitvoeren analyse</t>
-  </si>
-  <si>
-    <t>pu-13</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Requirementsanalyseproces</t>
-  </si>
-  <si>
-    <t>Beheren requirements</t>
-  </si>
-  <si>
-    <t>rb-12</t>
-  </si>
-  <si>
-    <t>Valideren requirements</t>
-  </si>
-  <si>
-    <t>rv-11</t>
-  </si>
-  <si>
-    <t>Specifieren requirements</t>
-  </si>
-  <si>
-    <t>rs-10</t>
-  </si>
-  <si>
-    <t>Analyseren requirements</t>
-  </si>
-  <si>
-    <t>ra-9</t>
-  </si>
-  <si>
-    <t>Verzamelen requirements</t>
-  </si>
-  <si>
-    <t>rv-8</t>
-  </si>
-  <si>
-    <t>Definiëren probleemdomein</t>
-  </si>
-  <si>
-    <t>rd-7</t>
-  </si>
-  <si>
-    <t>Overkoepelend</t>
-  </si>
-  <si>
-    <t>Managen ontwikkelproces</t>
-  </si>
-  <si>
-    <t>bm-22</t>
-  </si>
-  <si>
-    <t>Status opties</t>
-  </si>
-  <si>
-    <t>Prioriteit opties</t>
-  </si>
-  <si>
-    <t>Jeroen &amp; Jorrick</t>
-  </si>
-  <si>
-    <t>Bas &amp; Jorrick</t>
-  </si>
-  <si>
-    <t>OTAP-acceptatietest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,18 +673,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF395766"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF5B4310"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,12 +694,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0E6F5"/>
-        <bgColor rgb="FFC0E6F5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor rgb="FFC0E6F5"/>
       </patternFill>
     </fill>
@@ -710,12 +719,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFC0E6F5"/>
       </patternFill>
     </fill>
     <fill>
@@ -799,39 +802,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor rgb="FFC0E6F5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF94DCF8"/>
-        <bgColor rgb="FFC0E6F5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF94DCF8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFC0E6F5"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -848,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -857,6 +851,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -868,60 +863,54 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="31">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1200,6 +1189,283 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1245,23 +1511,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E360DEF2-F1B2-4BA5-8E91-707378BF0670}" name="Tabel1" displayName="Tabel1" ref="A1:P51" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:P51" xr:uid="{E360DEF2-F1B2-4BA5-8E91-707378BF0670}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E360DEF2-F1B2-4BA5-8E91-707378BF0670}" name="Tabel1" displayName="Tabel1" ref="A1:P56" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:P56" xr:uid="{E360DEF2-F1B2-4BA5-8E91-707378BF0670}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{01821328-B213-44FD-94CD-FED343C81C8A}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{0FDDFDAE-5FC2-4F3A-8DA5-1B3F9DB45F76}" name="TC-1"/>
-    <tableColumn id="3" xr3:uid="{C799B5A4-897C-4D60-9851-B41D350A4F78}" name="TC-2"/>
-    <tableColumn id="4" xr3:uid="{78CA1916-677B-40F8-B304-2AB893A47734}" name="Proces"/>
-    <tableColumn id="5" xr3:uid="{BF02225B-B7B5-43B3-B9DD-63FAD1DC204F}" name="Processtap"/>
-    <tableColumn id="6" xr3:uid="{B40FD5EA-7721-4103-84B2-986C3921ACC9}" name="Onderwerp"/>
-    <tableColumn id="7" xr3:uid="{D14EB983-5481-4631-8E81-6D17016DE01D}" name="PS"/>
-    <tableColumn id="8" xr3:uid="{E459A4F0-BDDE-4B8A-9241-6DC8BFCE479D}" name="LT"/>
-    <tableColumn id="9" xr3:uid="{5847A866-5B36-4E01-B9F7-DF778BFA2B67}" name="OI"/>
-    <tableColumn id="10" xr3:uid="{57030284-157B-4D86-9EED-6B2C9FF00B73}" name="PI"/>
-    <tableColumn id="11" xr3:uid="{61BCC077-D4CC-4BC4-A037-110BF7035EBF}" name="DT"/>
-    <tableColumn id="12" xr3:uid="{8F133939-2BAF-4FEF-90E3-5133EEA071A6}" name="Auteur"/>
-    <tableColumn id="13" xr3:uid="{7D8294B3-78B0-4C81-B48A-34504E05CDAE}" name="Reviewer"/>
-    <tableColumn id="14" xr3:uid="{35EC6C20-3268-4E10-8BF7-8FBFFE466F24}" name="Status"/>
+    <tableColumn id="1" xr3:uid="{01821328-B213-44FD-94CD-FED343C81C8A}" name="Id" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{0FDDFDAE-5FC2-4F3A-8DA5-1B3F9DB45F76}" name="TC-1" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{C799B5A4-897C-4D60-9851-B41D350A4F78}" name="TC-2" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{78CA1916-677B-40F8-B304-2AB893A47734}" name="Proces" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{BF02225B-B7B5-43B3-B9DD-63FAD1DC204F}" name="Processtap" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{B40FD5EA-7721-4103-84B2-986C3921ACC9}" name="Onderwerp" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{D14EB983-5481-4631-8E81-6D17016DE01D}" name="PS" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{E459A4F0-BDDE-4B8A-9241-6DC8BFCE479D}" name="LT" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{5847A866-5B36-4E01-B9F7-DF778BFA2B67}" name="OI" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{57030284-157B-4D86-9EED-6B2C9FF00B73}" name="PI" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{61BCC077-D4CC-4BC4-A037-110BF7035EBF}" name="DT" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{8F133939-2BAF-4FEF-90E3-5133EEA071A6}" name="Auteur" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{7D8294B3-78B0-4C81-B48A-34504E05CDAE}" name="Reviewer" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{35EC6C20-3268-4E10-8BF7-8FBFFE466F24}" name="Status" dataDxfId="15"/>
     <tableColumn id="15" xr3:uid="{FA030D98-FF79-4C7B-BDD9-998488FCB84F}" name="Catalogus Id" dataDxfId="14"/>
     <tableColumn id="16" xr3:uid="{FBDEE4B1-7948-4022-A306-FB2DF65687C2}" name="Prio" dataDxfId="13"/>
   </tableColumns>
@@ -1600,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC125E6-F660-4D9F-8B64-6A9882FA616A}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N51" sqref="A2:N51"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,108 +1881,109 @@
     <col min="6" max="6" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="I2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="7"/>
+      <c r="O2" s="8"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1735,16 +2002,16 @@
         <v>25</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="11" t="s">
+      <c r="H3" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="33" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -1753,60 +2020,62 @@
       <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="7"/>
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
+        <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1825,16 +2094,16 @@
         <v>28</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="33" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -1843,58 +2112,60 @@
       <c r="M5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="37" t="s">
         <v>24</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
+        <f t="shared" ref="A6:A56" si="0">A5+1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="I6" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="7"/>
+      <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1913,16 +2184,16 @@
         <v>30</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="I7" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="33" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -1931,58 +2202,60 @@
       <c r="M7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="37" t="s">
         <v>24</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="I8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="7"/>
+      <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2001,16 +2274,16 @@
         <v>32</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="11" t="s">
+      <c r="I9" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="33" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -2019,58 +2292,60 @@
       <c r="M9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="37" t="s">
         <v>24</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="9" t="s">
+      <c r="I10" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="7"/>
+      <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2089,16 +2364,16 @@
         <v>34</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="11" t="s">
+      <c r="I11" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="33" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -2107,1733 +2382,2015 @@
       <c r="M11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="37" t="s">
         <v>24</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="10" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="7"/>
+      <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="13" t="s">
-        <v>43</v>
+      <c r="N13" s="37" t="s">
+        <v>24</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14" s="7"/>
+      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="35" t="s">
         <v>47</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="7"/>
+      <c r="N16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="36" t="s">
         <v>53</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="7"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="H19" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="37" t="s">
-        <v>52</v>
+      <c r="N19" s="36" t="s">
+        <v>53</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="44"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="7"/>
+      <c r="E20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="45"/>
+      <c r="H21" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="37" t="s">
-        <v>52</v>
+      <c r="N21" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="O22" s="7"/>
+      <c r="E22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="H23" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="13" t="s">
-        <v>43</v>
+      <c r="N23" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="40" t="s">
-        <v>64</v>
+      <c r="M24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="38" t="s">
+      <c r="H25" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="40" t="s">
-        <v>64</v>
+      <c r="N25" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="39" t="s">
+      <c r="E26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="K26" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="13" t="s">
-        <v>43</v>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="38" t="s">
+      <c r="H27" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="39" t="s">
+      <c r="E28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="44"/>
-      <c r="M28" s="7"/>
+      <c r="K28" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="N28" s="37" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="38" t="s">
+      <c r="H29" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="45"/>
+      <c r="K29" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="M29" s="2"/>
-      <c r="N29" s="37" t="s">
-        <v>52</v>
+      <c r="N29" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="39" t="s">
+      <c r="E30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N30" s="40" t="s">
-        <v>64</v>
+      <c r="K30" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="38" t="s">
+      <c r="H31" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N31" s="40" t="s">
-        <v>64</v>
+        <v>49</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="39" t="s">
+      <c r="E32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N32" s="40" t="s">
-        <v>64</v>
+      <c r="K32" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="38" t="s">
+      <c r="H33" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="34" t="s">
         <v>17</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="13" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="C34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M34" s="7"/>
-      <c r="N34" s="37" t="s">
+      <c r="E34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35" s="45"/>
+      <c r="H35" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="M35" s="2"/>
-      <c r="N35" s="37" t="s">
-        <v>52</v>
+      <c r="N35" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M36" s="7"/>
-      <c r="N36" s="37" t="s">
-        <v>52</v>
+      <c r="E36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="45"/>
+      <c r="H37" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="M37" s="2"/>
-      <c r="N37" s="37" t="s">
-        <v>52</v>
+      <c r="N37" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="44"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="37" t="s">
-        <v>52</v>
+      <c r="E38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="36" t="s">
+        <v>53</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="H39" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-      <c r="N39" s="37" t="s">
-        <v>52</v>
+      <c r="N39" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="44"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="37" t="s">
+      <c r="E40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="36" t="s">
+        <v>53</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="H41" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="37" t="s">
-        <v>52</v>
+      <c r="N41" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="A42" s="3">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="B42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="C42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="44"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="37" t="s">
-        <v>52</v>
+      <c r="E42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="36" t="s">
+        <v>53</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K43" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="L43" s="45"/>
+      <c r="H43" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="37" t="s">
-        <v>52</v>
+      <c r="N43" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="A44" s="3">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="B44" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="C44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M44" s="7"/>
-      <c r="N44" s="37" t="s">
-        <v>52</v>
+      <c r="E44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K44" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="41" t="s">
+      <c r="B45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="C45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="41"/>
-      <c r="H45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="L45" s="45"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="36" t="s">
+      <c r="E45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K45" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="L45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O45" s="31"/>
-      <c r="P45" s="35"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="M45" s="2"/>
+      <c r="N45" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="7" t="s">
+      <c r="B46" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="C46" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="L46" s="44"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="O46" s="7"/>
-      <c r="P46" s="2"/>
+      <c r="E46" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" s="40"/>
+      <c r="H46" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G48" s="2"/>
+      <c r="H48" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N47" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="O47" s="1">
+      <c r="N48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O48" s="1">
         <v>74</v>
       </c>
-      <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>47</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N48" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="O48" s="1"/>
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="I49" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="E50" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="F50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N50" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N49" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>49</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="N50" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N51" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="16" t="s">
+      <c r="C52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2" t="s">
+      <c r="G52" s="2"/>
+      <c r="H52" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="J52" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O52" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M53" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="N53" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P53" s="2"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M54" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="N54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P54" s="2"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K55" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N51" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="O51" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="P51" s="2"/>
+      <c r="L55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P55" s="2"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P56" s="2"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K37:L37"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H1:K1 H52:K1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="C55:C56 H1:K1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"X,X,X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N52:N1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
       <formula>"In pull request"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Branch"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
       <formula>"On hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Doorgevoerd"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3844,24 +4401,36 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1FC694B2-9BFE-4BCC-81E1-0A0A5328629A}">
           <x14:formula1>
             <xm:f>Configuratie!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>N1 N52:N1048576</xm:sqref>
+          <xm:sqref>N1:N1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{152E1D33-79FC-47AF-B94E-515BD2C5BB11}">
           <x14:formula1>
             <xm:f>Taxonomiecodes!$E$2:$E$29</xm:f>
           </x14:formula1>
-          <xm:sqref>B1 B52:B1048576</xm:sqref>
+          <xm:sqref>B1:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F0E077B9-D519-419E-AEFA-058508ACEAE6}">
           <x14:formula1>
             <xm:f>Configuratie!$B$2:$B$13</xm:f>
           </x14:formula1>
           <xm:sqref>P1:P1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BB3D9382-91E5-40FE-9CDF-0E44E30254B7}">
+          <x14:formula1>
+            <xm:f>Taxonomiecodes!$C$2:$C$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{67E07298-3BC4-40D8-9826-2ADAE16C1CD8}">
+          <x14:formula1>
+            <xm:f>Taxonomiecodes!$D$2:$D$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3889,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>3</v>
@@ -3898,7 +4467,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3906,16 +4475,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3923,16 +4492,16 @@
         <v>27</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3940,16 +4509,16 @@
         <v>26</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3957,16 +4526,16 @@
         <v>25</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3974,7 +4543,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>18</v>
@@ -3991,16 +4560,16 @@
         <v>23</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4008,16 +4577,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4025,16 +4594,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4042,16 +4611,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4059,16 +4628,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4076,16 +4645,16 @@
         <v>28</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4093,16 +4662,16 @@
         <v>21</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4110,16 +4679,16 @@
         <v>20</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4127,16 +4696,16 @@
         <v>19</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C15" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4144,10 +4713,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>108</v>
@@ -4161,16 +4730,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4178,16 +4747,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4195,16 +4764,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4212,16 +4781,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4229,16 +4798,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4246,16 +4815,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C22" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>91</v>
-      </c>
       <c r="E22" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4263,16 +4832,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4280,16 +4849,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4297,16 +4866,16 @@
         <v>10</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4314,16 +4883,16 @@
         <v>9</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4331,16 +4900,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4348,16 +4917,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4365,16 +4934,16 @@
         <v>22</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4399,15 +4968,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4415,7 +4984,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4423,7 +4992,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4431,7 +5000,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4486,19 +5055,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100515BA15BA15D264586723D52FB60ADE3" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8081e65c0d90ff229b3ea19f4e56e8a6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xmlns:ns3="030eaba2-629b-4e56-920e-8dcc1358a952" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0696630af3392a55adada5fa3bbfbff9" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100515BA15BA15D264586723D52FB60ADE3" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8145e89f48f7544065c1631cfb4174b7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xmlns:ns3="030eaba2-629b-4e56-920e-8dcc1358a952" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="73b179456a9f02424ae4d9487a76703b" ns2:_="" ns3:_="">
     <xsd:import namespace="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
     <xsd:import namespace="030eaba2-629b-4e56-920e-8dcc1358a952"/>
     <xsd:element name="properties">
@@ -4519,6 +5086,8 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4617,6 +5186,16 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4720,27 +5299,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="030eaba2-629b-4e56-920e-8dcc1358a952"/>
-    <ds:schemaRef ds:uri="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B4EE2B7-A422-45EC-ACF0-F986A8E813AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{869E5174-4466-4E4F-B92A-08A1A2EBCF8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -4759,9 +5337,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="030eaba2-629b-4e56-920e-8dcc1358a952"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/contentCompiler/src/datasets/dataset.xlsx
+++ b/contentCompiler/src/datasets/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\ContentCompiler\contentCompiler\src\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E24F5F-4B6A-4C6D-8402-07FB534CF9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BC5730-5C45-437F-86D9-AA4DEDB3AD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5355" windowWidth="29040" windowHeight="16440" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="190">
   <si>
     <t>Id</t>
   </si>
@@ -82,10 +82,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Catalogus Id</t>
-  </si>
-  <si>
-    <t>Prio</t>
+    <t>Column1</t>
   </si>
   <si>
     <t>bg-24</t>
@@ -121,9 +118,6 @@
     <t>Git-Branches</t>
   </si>
   <si>
-    <t>n36</t>
-  </si>
-  <si>
     <t>Git-Commits</t>
   </si>
   <si>
@@ -235,6 +229,9 @@
     <t>Datatype-Primitief-Integer</t>
   </si>
   <si>
+    <t xml:space="preserve">Teun &amp; Martijn &amp; Ward </t>
+  </si>
+  <si>
     <t>Datatype-Primitief-Float</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
     <t>Datatype-Primitief-Double</t>
   </si>
   <si>
+    <t>Teun &amp; Martijn</t>
+  </si>
+  <si>
     <t>Datatype-Primitief-Boolean</t>
   </si>
   <si>
@@ -268,6 +268,9 @@
     <t>Datastructuur-Array</t>
   </si>
   <si>
+    <t>Open</t>
+  </si>
+  <si>
     <t>Datastructuur-Tupel</t>
   </si>
   <si>
@@ -343,9 +346,6 @@
     <t>Use-Cases</t>
   </si>
   <si>
-    <t>z16</t>
-  </si>
-  <si>
     <t>bb-25</t>
   </si>
   <si>
@@ -358,9 +358,6 @@
     <t xml:space="preserve">Ernst &amp; Martijn </t>
   </si>
   <si>
-    <t>n43</t>
-  </si>
-  <si>
     <t>ii-18</t>
   </si>
   <si>
@@ -373,7 +370,10 @@
     <t>Ernst &amp; Martijn &amp; Teun</t>
   </si>
   <si>
-    <t>z11,z22</t>
+    <t>Acitviteitendiagram</t>
+  </si>
+  <si>
+    <t>Classes-Methods-Enums</t>
   </si>
   <si>
     <t>Branching-strategiën</t>
@@ -382,9 +382,6 @@
     <t>Gitflow</t>
   </si>
   <si>
-    <t>n38</t>
-  </si>
-  <si>
     <t>ta-6</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
     <t>Martijn</t>
   </si>
   <si>
-    <t>z1</t>
-  </si>
-  <si>
     <t>tu-4</t>
   </si>
   <si>
@@ -415,7 +409,82 @@
     <t>Functioneel-Testen</t>
   </si>
   <si>
-    <t>z9</t>
+    <t>Inheritance-Polymorphism-Generics</t>
+  </si>
+  <si>
+    <t>rs-10</t>
+  </si>
+  <si>
+    <t>Requirementsanalyseproces</t>
+  </si>
+  <si>
+    <t>Specifieren requirements</t>
+  </si>
+  <si>
+    <t>Use-Case-Diagram</t>
+  </si>
+  <si>
+    <t>bm-22</t>
+  </si>
+  <si>
+    <t>Managen ontwikkelproces</t>
+  </si>
+  <si>
+    <t>Product-Backlog</t>
+  </si>
+  <si>
+    <t>ra-9</t>
+  </si>
+  <si>
+    <t>Analyseren requirements</t>
+  </si>
+  <si>
+    <t>Domein-Analyse</t>
+  </si>
+  <si>
+    <t>Classes-Methods-Properties</t>
+  </si>
+  <si>
+    <t>Git-Flow</t>
+  </si>
+  <si>
+    <t>Multidimensionale-Array</t>
+  </si>
+  <si>
+    <t>rd-7</t>
+  </si>
+  <si>
+    <t>Definiëren probleemdomein</t>
+  </si>
+  <si>
+    <t>Commitment</t>
+  </si>
+  <si>
+    <t>rb-12</t>
+  </si>
+  <si>
+    <t>Beheren requirements</t>
+  </si>
+  <si>
+    <t>Scrum-Events</t>
+  </si>
+  <si>
+    <t>Getallen-Getallenstelsels</t>
+  </si>
+  <si>
+    <t>Getallen-Byte</t>
+  </si>
+  <si>
+    <t>Getallen-Two-Complement</t>
+  </si>
+  <si>
+    <t>Gebruikerstesten</t>
+  </si>
+  <si>
+    <t>Testrapportage</t>
+  </si>
+  <si>
+    <t>Toestandsdiagram</t>
   </si>
   <si>
     <t>SSDLC</t>
@@ -520,68 +589,32 @@
     <t>Requirements</t>
   </si>
   <si>
-    <t>Requirementsanalyseproces</t>
-  </si>
-  <si>
-    <t>Beheren requirements</t>
-  </si>
-  <si>
-    <t>rb-12</t>
-  </si>
-  <si>
     <t>Valideren requirements</t>
   </si>
   <si>
     <t>rv-11</t>
   </si>
   <si>
-    <t>Specifieren requirements</t>
-  </si>
-  <si>
-    <t>rs-10</t>
-  </si>
-  <si>
-    <t>Analyseren requirements</t>
-  </si>
-  <si>
-    <t>ra-9</t>
-  </si>
-  <si>
     <t>Verzamelen requirements</t>
   </si>
   <si>
     <t>rv-8</t>
   </si>
   <si>
-    <t>Definiëren probleemdomein</t>
-  </si>
-  <si>
-    <t>rd-7</t>
-  </si>
-  <si>
     <t>Overkoepelend</t>
   </si>
   <si>
-    <t>Managen ontwikkelproces</t>
-  </si>
-  <si>
-    <t>bm-22</t>
-  </si>
-  <si>
     <t>Status opties</t>
   </si>
   <si>
     <t>Prioriteit opties</t>
-  </si>
-  <si>
-    <t>Open</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,6 +709,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="23">
@@ -812,7 +851,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -829,20 +868,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF44B3E1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -893,9 +923,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -906,11 +933,13 @@
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1131,24 +1160,6 @@
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -1511,25 +1522,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E360DEF2-F1B2-4BA5-8E91-707378BF0670}" name="Tabel1" displayName="Tabel1" ref="A1:P56" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A1:P56" xr:uid="{E360DEF2-F1B2-4BA5-8E91-707378BF0670}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{01821328-B213-44FD-94CD-FED343C81C8A}" name="Id" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{0FDDFDAE-5FC2-4F3A-8DA5-1B3F9DB45F76}" name="TC-1" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{C799B5A4-897C-4D60-9851-B41D350A4F78}" name="TC-2" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{78CA1916-677B-40F8-B304-2AB893A47734}" name="Proces" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{BF02225B-B7B5-43B3-B9DD-63FAD1DC204F}" name="Processtap" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{B40FD5EA-7721-4103-84B2-986C3921ACC9}" name="Onderwerp" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{D14EB983-5481-4631-8E81-6D17016DE01D}" name="PS" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{E459A4F0-BDDE-4B8A-9241-6DC8BFCE479D}" name="LT" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{5847A866-5B36-4E01-B9F7-DF778BFA2B67}" name="OI" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{57030284-157B-4D86-9EED-6B2C9FF00B73}" name="PI" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{61BCC077-D4CC-4BC4-A037-110BF7035EBF}" name="DT" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{8F133939-2BAF-4FEF-90E3-5133EEA071A6}" name="Auteur" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{7D8294B3-78B0-4C81-B48A-34504E05CDAE}" name="Reviewer" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{35EC6C20-3268-4E10-8BF7-8FBFFE466F24}" name="Status" dataDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{FA030D98-FF79-4C7B-BDD9-998488FCB84F}" name="Catalogus Id" dataDxfId="14"/>
-    <tableColumn id="16" xr3:uid="{FBDEE4B1-7948-4022-A306-FB2DF65687C2}" name="Prio" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E360DEF2-F1B2-4BA5-8E91-707378BF0670}" name="Tabel1" displayName="Tabel1" ref="A1:O73" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:O73" xr:uid="{E360DEF2-F1B2-4BA5-8E91-707378BF0670}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{01821328-B213-44FD-94CD-FED343C81C8A}" name="Id" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{0FDDFDAE-5FC2-4F3A-8DA5-1B3F9DB45F76}" name="TC-1" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{C799B5A4-897C-4D60-9851-B41D350A4F78}" name="TC-2" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{78CA1916-677B-40F8-B304-2AB893A47734}" name="Proces" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{BF02225B-B7B5-43B3-B9DD-63FAD1DC204F}" name="Processtap" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{B40FD5EA-7721-4103-84B2-986C3921ACC9}" name="Onderwerp" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{D14EB983-5481-4631-8E81-6D17016DE01D}" name="PS" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{E459A4F0-BDDE-4B8A-9241-6DC8BFCE479D}" name="LT" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{5847A866-5B36-4E01-B9F7-DF778BFA2B67}" name="OI" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{57030284-157B-4D86-9EED-6B2C9FF00B73}" name="PI" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{61BCC077-D4CC-4BC4-A037-110BF7035EBF}" name="DT" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{8F133939-2BAF-4FEF-90E3-5133EEA071A6}" name="Auteur" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{7D8294B3-78B0-4C81-B48A-34504E05CDAE}" name="Reviewer" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{35EC6C20-3268-4E10-8BF7-8FBFFE466F24}" name="Status" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{51F79C5B-B0AC-46A4-993E-8D9AFE19D1FF}" name="Column1" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1866,17 +1876,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC125E6-F660-4D9F-8B64-6A9882FA616A}">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
@@ -1884,10 +1894,9 @@
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1933,2145 +1942,2102 @@
       <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="37" t="s">
-        <v>24</v>
-      </c>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="M5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f t="shared" ref="A6:A68" si="0">A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <f t="shared" ref="A6:A56" si="0">A5+1</f>
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="37" t="s">
-        <v>24</v>
-      </c>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="37" t="s">
-        <v>24</v>
-      </c>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="37" t="s">
-        <v>24</v>
-      </c>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="N24" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I25" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="N25" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f>_xlfn.CONCAT(Tabel1[[#This Row],[TC-1]],".[",Tabel1[[#This Row],[LT]],"].",Tabel1[[#This Row],[Onderwerp]],".[LT,OI]")</f>
+        <v>ib-19.[X,2,3].Datatype-Primitief-Integer.[LT,OI]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="N26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J27" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N28" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="N29" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J30" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="N30" s="35" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J31" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N32" s="35" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="11" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J36" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J37" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="11" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J38" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="J39" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="M39" s="2"/>
       <c r="N39" s="11" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I40" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J40" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="36" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I41" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J41" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I42" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J42" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="36" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I43" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I44" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="J44" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="K44" s="34" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="J44" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="J45" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="I45" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="J45" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="K45" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-    </row>
-    <row r="46" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G46" s="40"/>
-      <c r="H46" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F46" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="G46" s="39"/>
+      <c r="H46" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="O46" s="43"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I47" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J47" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I48" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J48" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K48" s="33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O48" s="1">
-        <v>74</v>
-      </c>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I49" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K49" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N49" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O49" s="1"/>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I50" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K50" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N50" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P50" s="2"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4080,10 +4046,10 @@
         <v>102</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>103</v>
@@ -4093,286 +4059,1038 @@
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I51" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J51" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K51" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>105</v>
       </c>
       <c r="N51" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="16" t="s">
+      <c r="F52" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I52" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J52" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K52" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O52" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P52" s="2"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I53" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J53" s="33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K53" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N53" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P53" s="2"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f>A54+1</f>
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K54" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>118</v>
+        <v>18</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I55" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K55" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="N55" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>124</v>
+      <c r="F56" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I56" s="33" t="s">
+      <c r="E58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="33" t="s">
+      <c r="E61" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K56" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O56" s="1" t="s">
+      <c r="M64" s="2"/>
+      <c r="N64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="P56" s="2"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O68" s="2"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" ref="A69:A72" si="1">A68+1</f>
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O71" s="2"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O72" s="2"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O73" s="2"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="3"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C55:C56 H1:K1048576">
+  <conditionalFormatting sqref="C57:C58 H1:K1048576">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"X,X,X"</formula>
     </cfRule>
@@ -4401,7 +5119,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1FC694B2-9BFE-4BCC-81E1-0A0A5328629A}">
           <x14:formula1>
             <xm:f>Configuratie!$A$2:$A$6</xm:f>
@@ -4413,12 +5131,6 @@
             <xm:f>Taxonomiecodes!$E$2:$E$29</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F0E077B9-D519-419E-AEFA-058508ACEAE6}">
-          <x14:formula1>
-            <xm:f>Configuratie!$B$2:$B$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>P1:P1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BB3D9382-91E5-40FE-9CDF-0E44E30254B7}">
           <x14:formula1>
@@ -4458,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>3</v>
@@ -4467,7 +5179,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4475,16 +5187,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>117</v>
-      </c>
       <c r="E2" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4492,16 +5204,16 @@
         <v>27</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4509,16 +5221,16 @@
         <v>26</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4526,10 +5238,10 @@
         <v>25</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>103</v>
@@ -4543,16 +5255,16 @@
         <v>24</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4560,16 +5272,16 @@
         <v>23</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4577,16 +5289,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4594,16 +5306,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4611,16 +5323,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4628,16 +5340,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4645,16 +5357,16 @@
         <v>28</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>95</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4662,16 +5374,16 @@
         <v>21</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4679,16 +5391,16 @@
         <v>20</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4696,16 +5408,16 @@
         <v>19</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4713,16 +5425,16 @@
         <v>18</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4730,16 +5442,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4747,16 +5459,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4764,16 +5476,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4781,16 +5493,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4798,16 +5510,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4815,16 +5527,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C22" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4832,16 +5544,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4849,16 +5561,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4866,16 +5578,16 @@
         <v>10</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4883,16 +5595,16 @@
         <v>9</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4900,16 +5612,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4917,16 +5629,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4934,16 +5646,16 @@
         <v>22</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4968,15 +5680,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4984,7 +5696,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4992,7 +5704,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5000,7 +5712,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5008,7 +5720,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5055,15 +5767,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100515BA15BA15D264586723D52FB60ADE3" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8145e89f48f7544065c1631cfb4174b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xmlns:ns3="030eaba2-629b-4e56-920e-8dcc1358a952" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="73b179456a9f02424ae4d9487a76703b" ns2:_="" ns3:_="">
     <xsd:import namespace="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
@@ -5298,6 +6001,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5310,14 +6022,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{869E5174-4466-4E4F-B92A-08A1A2EBCF8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5336,19 +6040,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="030eaba2-629b-4e56-920e-8dcc1358a952"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/contentCompiler/src/datasets/dataset.xlsx
+++ b/contentCompiler/src/datasets/dataset.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\ContentCompiler\contentCompiler\src\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\GIT\Leerlijn-Content-SE\.github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E24F5F-4B6A-4C6D-8402-07FB534CF9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE58C692-692B-4325-8D48-26D55BF3952B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5355" windowWidth="29040" windowHeight="16440" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" xr2:uid="{7013DF88-B919-4E44-A3B6-EFF7F9C231E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="2" r:id="rId1"/>
     <sheet name="Taxonomiecodes" sheetId="3" r:id="rId2"/>
     <sheet name="Configuratie" sheetId="4" r:id="rId3"/>
+    <sheet name="Taxco CSharp" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="205">
   <si>
     <t>Id</t>
   </si>
@@ -82,10 +83,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Catalogus Id</t>
-  </si>
-  <si>
-    <t>Prio</t>
+    <t>Column1</t>
   </si>
   <si>
     <t>bg-24</t>
@@ -121,9 +119,6 @@
     <t>Git-Branches</t>
   </si>
   <si>
-    <t>n36</t>
-  </si>
-  <si>
     <t>Git-Commits</t>
   </si>
   <si>
@@ -172,416 +167,500 @@
     <t>Jasper</t>
   </si>
   <si>
+    <t>Controlestructuur-Herhaling-For</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-While</t>
+  </si>
+  <si>
+    <t>Jorrick</t>
+  </si>
+  <si>
+    <t>Ward &amp; Teun &amp; Martijn</t>
+  </si>
+  <si>
+    <t>X,X,3</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-Recursie</t>
+  </si>
+  <si>
+    <t>Ties</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Herhaling-Break-Continue-Return</t>
+  </si>
+  <si>
+    <t>Jeroen</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Uitzonderingen-Try-Catch-Finally</t>
+  </si>
+  <si>
+    <t>On hold</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Resources-Using</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Asynchroon-Async</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Asynchroon-Await</t>
+  </si>
+  <si>
+    <t>Controlestructuur-Pattern-Matching-Object-is-type</t>
+  </si>
+  <si>
+    <t>Datatype-Declaratie-en-Initialisatie</t>
+  </si>
+  <si>
+    <t>Jeroen &amp; Jorrick</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teun &amp; Martijn &amp; Ward </t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Float</t>
+  </si>
+  <si>
+    <t>Bas &amp; Jorrick</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Double</t>
+  </si>
+  <si>
+    <t>Teun &amp; Martijn</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Boolean</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Char</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Byte</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Long</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-Uint</t>
+  </si>
+  <si>
+    <t>Datatype-Primitief-ULong</t>
+  </si>
+  <si>
+    <t>Datatype-String</t>
+  </si>
+  <si>
+    <t>Datastructuur-Array</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Datastructuur-Tupel</t>
+  </si>
+  <si>
+    <t>Datastructuur-List</t>
+  </si>
+  <si>
+    <t>Datastructuur-Set</t>
+  </si>
+  <si>
+    <t>Martijn</t>
+  </si>
+  <si>
+    <t>Datastructuur-Dictionary</t>
+  </si>
+  <si>
+    <t>Datastructuur-Queue</t>
+  </si>
+  <si>
+    <t>Datastructuur-Hashset</t>
+  </si>
+  <si>
+    <t>Datastructuur-Stack</t>
+  </si>
+  <si>
+    <t>Event-Delegate</t>
+  </si>
+  <si>
+    <t>Datastructuur-Linkedlist</t>
+  </si>
+  <si>
+    <t>Datastructuur-PriorityQueue</t>
+  </si>
+  <si>
+    <t>Datatype-Struct</t>
+  </si>
+  <si>
+    <t>Datatype-Null</t>
+  </si>
+  <si>
+    <t>oo-15</t>
+  </si>
+  <si>
+    <t>Ontwerpproces</t>
+  </si>
+  <si>
+    <t>Opstellen ontwerp</t>
+  </si>
+  <si>
+    <t>Klassendiagram</t>
+  </si>
+  <si>
+    <t>io-28</t>
+  </si>
+  <si>
+    <t>Oplossen fouten</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>X,2,X</t>
+  </si>
+  <si>
+    <t>Use-Cases</t>
+  </si>
+  <si>
+    <t>bb-25</t>
+  </si>
+  <si>
+    <t>Beschikbaarstellen software</t>
+  </si>
+  <si>
+    <t>OTAP-acceptatietest</t>
+  </si>
+  <si>
+    <t>ii-18</t>
+  </si>
+  <si>
+    <t>Inrichten ontwikkelomgeving</t>
+  </si>
+  <si>
+    <t>IDE-setup-en-build</t>
+  </si>
+  <si>
+    <t>Acitviteitendiagram</t>
+  </si>
+  <si>
+    <t>Classes-Methods-Enums</t>
+  </si>
+  <si>
+    <t>Branching-strategiën</t>
+  </si>
+  <si>
+    <t>Ernst</t>
+  </si>
+  <si>
+    <t>Gitflow</t>
+  </si>
+  <si>
+    <t>ta-6</t>
+  </si>
+  <si>
+    <t>Testproces</t>
+  </si>
+  <si>
+    <t>Adviseren testproces</t>
+  </si>
+  <si>
+    <t>Teststrategie</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Ties</t>
+  </si>
+  <si>
+    <t>tu-4</t>
+  </si>
+  <si>
+    <t>Uitvoeren test</t>
+  </si>
+  <si>
+    <t>Functioneel-Testen</t>
+  </si>
+  <si>
+    <t>Inheritance-Polymorphism-Generics</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>rs-10</t>
+  </si>
+  <si>
+    <t>Requirementsanalyseproces</t>
+  </si>
+  <si>
+    <t>Specifieren requirements</t>
+  </si>
+  <si>
+    <t>Use-Case-Diagram</t>
+  </si>
+  <si>
+    <t>bm-22</t>
+  </si>
+  <si>
+    <t>Managen ontwikkelproces</t>
+  </si>
+  <si>
+    <t>Product-Backlog</t>
+  </si>
+  <si>
+    <t>ra-9</t>
+  </si>
+  <si>
+    <t>Analyseren requirements</t>
+  </si>
+  <si>
+    <t>Domein-Analyse</t>
+  </si>
+  <si>
+    <t>Classes-Methods-Properties</t>
+  </si>
+  <si>
+    <t>Git-Flow</t>
+  </si>
+  <si>
+    <t>Multidimensionale-Array</t>
+  </si>
+  <si>
+    <t>rd-7</t>
+  </si>
+  <si>
+    <t>Definiëren probleemdomein</t>
+  </si>
+  <si>
+    <t>Commitment</t>
+  </si>
+  <si>
+    <t>rb-12</t>
+  </si>
+  <si>
+    <t>Beheren requirements</t>
+  </si>
+  <si>
+    <t>Scrum-Events</t>
+  </si>
+  <si>
+    <t>Getallen-Getallenstelsels</t>
+  </si>
+  <si>
+    <t>Getallen-Byte</t>
+  </si>
+  <si>
+    <t>Gebruikerstesten</t>
+  </si>
+  <si>
+    <t>Testrapportage</t>
+  </si>
+  <si>
+    <t>Toestandsdiagram</t>
+  </si>
+  <si>
+    <t>SSDLC</t>
+  </si>
+  <si>
+    <t>Taxonomiecode-deel-1</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Uitvoeren configuratie-, change- en releasemangement</t>
+  </si>
+  <si>
+    <t>bu-27</t>
+  </si>
+  <si>
+    <t>Evalueren ontwikkelstraat</t>
+  </si>
+  <si>
+    <t>be-26</t>
+  </si>
+  <si>
+    <t>Beheren ontwikkelstraat</t>
+  </si>
+  <si>
+    <t>bb-23</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Evalueren test</t>
+  </si>
+  <si>
+    <t>te-5</t>
+  </si>
+  <si>
+    <t>Opstellen test</t>
+  </si>
+  <si>
+    <t>to-3</t>
+  </si>
+  <si>
+    <t>Opstellen testontwerp</t>
+  </si>
+  <si>
+    <t>to-2</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Beredeneren bouwkeuzes</t>
+  </si>
+  <si>
+    <t>ib-21</t>
+  </si>
+  <si>
+    <t>Refactoren applicatie</t>
+  </si>
+  <si>
+    <t>ir-20</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Adviseren architectuur</t>
+  </si>
+  <si>
+    <t>oa-17</t>
+  </si>
+  <si>
+    <t>Pakketselectieproces</t>
+  </si>
+  <si>
+    <t>Adviseren onderdeelselectie</t>
+  </si>
+  <si>
+    <t>pa-14</t>
+  </si>
+  <si>
+    <t>Vaststellen kwaliteit</t>
+  </si>
+  <si>
+    <t>ov-16</t>
+  </si>
+  <si>
+    <t>Opstellen teststrategie</t>
+  </si>
+  <si>
+    <t>to-1</t>
+  </si>
+  <si>
+    <t>Uitvoeren analyse</t>
+  </si>
+  <si>
+    <t>pu-13</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Valideren requirements</t>
+  </si>
+  <si>
+    <t>rv-11</t>
+  </si>
+  <si>
+    <t>Verzamelen requirements</t>
+  </si>
+  <si>
+    <t>rv-8</t>
+  </si>
+  <si>
+    <t>Overkoepelend</t>
+  </si>
+  <si>
+    <t>Status opties</t>
+  </si>
+  <si>
+    <t>Prioriteit opties</t>
+  </si>
+  <si>
     <t>In pull request</t>
   </si>
   <si>
-    <t>Controlestructuur-Herhaling-For</t>
-  </si>
-  <si>
-    <t>Jorrick</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Herhaling-While</t>
-  </si>
-  <si>
-    <t>Ward &amp; Teun &amp; Martijn</t>
-  </si>
-  <si>
-    <t>X,X,3</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Herhaling-Recursie</t>
-  </si>
-  <si>
-    <t>Ties</t>
-  </si>
-  <si>
-    <t>On hold</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Herhaling-Break-Continue-Return</t>
-  </si>
-  <si>
-    <t>Jeroen</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Uitzonderingen-Try-Catch-Finally</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Resources-Using</t>
-  </si>
-  <si>
-    <t>Eltjo</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Asynchroon-Async</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Asynchroon-Await</t>
-  </si>
-  <si>
-    <t>Controlestructuur-Pattern-Matching-Object-is-type</t>
-  </si>
-  <si>
-    <t>Datatype-Declaratie-en-Initialisatie</t>
-  </si>
-  <si>
-    <t>Jeroen &amp; Jorrick</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Integer</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Float</t>
-  </si>
-  <si>
-    <t>Bas &amp; Jorrick</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Double</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Boolean</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Char</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Byte</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Long</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-Uint</t>
-  </si>
-  <si>
-    <t>Datatype-Primitief-ULong</t>
-  </si>
-  <si>
-    <t>Datatype-String</t>
-  </si>
-  <si>
-    <t>Datastructuur-Array</t>
-  </si>
-  <si>
-    <t>Datastructuur-Tupel</t>
-  </si>
-  <si>
-    <t>Datastructuur-List</t>
-  </si>
-  <si>
-    <t>Datastructuur-Set</t>
-  </si>
-  <si>
-    <t>Datastructuur-Dictionary</t>
-  </si>
-  <si>
-    <t>Datastructuur-Queue</t>
-  </si>
-  <si>
-    <t>Datastructuur-Hashset</t>
-  </si>
-  <si>
-    <t>Datastructuur-Stack</t>
-  </si>
-  <si>
-    <t>Event-Delegate</t>
-  </si>
-  <si>
-    <t>Datastructuur-Linkedlist</t>
-  </si>
-  <si>
-    <t>Datastructuur-PriorityQueue</t>
-  </si>
-  <si>
-    <t>Datatype-Struct</t>
-  </si>
-  <si>
-    <t>Datatype-Null</t>
-  </si>
-  <si>
-    <t>oo-15</t>
-  </si>
-  <si>
-    <t>Ontwerpproces</t>
-  </si>
-  <si>
-    <t>Opstellen ontwerp</t>
-  </si>
-  <si>
-    <t>Klassendiagram</t>
-  </si>
-  <si>
-    <t>Bart</t>
-  </si>
-  <si>
-    <t>Eltjo &amp; Teun</t>
-  </si>
-  <si>
-    <t>io-28</t>
-  </si>
-  <si>
-    <t>Oplossen fouten</t>
-  </si>
-  <si>
-    <t>Debugging</t>
-  </si>
-  <si>
-    <t>X,2,X</t>
-  </si>
-  <si>
-    <t>Ernst</t>
-  </si>
-  <si>
-    <t>Eugène</t>
-  </si>
-  <si>
-    <t>Use-Cases</t>
-  </si>
-  <si>
-    <t>z16</t>
-  </si>
-  <si>
-    <t>bb-25</t>
-  </si>
-  <si>
-    <t>Beschikbaarstellen software</t>
-  </si>
-  <si>
-    <t>OTAP-acceptatietest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ernst &amp; Martijn </t>
-  </si>
-  <si>
-    <t>n43</t>
-  </si>
-  <si>
-    <t>ii-18</t>
-  </si>
-  <si>
-    <t>Inrichten ontwikkelomgeving</t>
-  </si>
-  <si>
-    <t>IDE-setup-en-build</t>
-  </si>
-  <si>
-    <t>Ernst &amp; Martijn &amp; Teun</t>
-  </si>
-  <si>
-    <t>z11,z22</t>
-  </si>
-  <si>
-    <t>Branching-strategiën</t>
-  </si>
-  <si>
-    <t>Gitflow</t>
-  </si>
-  <si>
-    <t>n38</t>
-  </si>
-  <si>
-    <t>ta-6</t>
-  </si>
-  <si>
-    <t>Testproces</t>
-  </si>
-  <si>
-    <t>Adviseren testproces</t>
-  </si>
-  <si>
-    <t>Teststrategie</t>
-  </si>
-  <si>
-    <t>Ernst &amp; Ties</t>
-  </si>
-  <si>
-    <t>Martijn</t>
-  </si>
-  <si>
-    <t>z1</t>
-  </si>
-  <si>
-    <t>tu-4</t>
-  </si>
-  <si>
-    <t>Uitvoeren test</t>
-  </si>
-  <si>
-    <t>Functioneel-Testen</t>
-  </si>
-  <si>
-    <t>z9</t>
-  </si>
-  <si>
-    <t>SSDLC</t>
-  </si>
-  <si>
-    <t>Taxonomiecode-deel-1</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>Uitvoeren configuratie-, change- en releasemangement</t>
-  </si>
-  <si>
-    <t>bu-27</t>
-  </si>
-  <si>
-    <t>Evalueren ontwikkelstraat</t>
-  </si>
-  <si>
-    <t>be-26</t>
-  </si>
-  <si>
-    <t>Beheren ontwikkelstraat</t>
-  </si>
-  <si>
-    <t>bb-23</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Evalueren test</t>
-  </si>
-  <si>
-    <t>te-5</t>
-  </si>
-  <si>
-    <t>Opstellen test</t>
-  </si>
-  <si>
-    <t>to-3</t>
-  </si>
-  <si>
-    <t>Opstellen testontwerp</t>
-  </si>
-  <si>
-    <t>to-2</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>Beredeneren bouwkeuzes</t>
-  </si>
-  <si>
-    <t>ib-21</t>
-  </si>
-  <si>
-    <t>Refactoren applicatie</t>
-  </si>
-  <si>
-    <t>ir-20</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Adviseren architectuur</t>
-  </si>
-  <si>
-    <t>oa-17</t>
-  </si>
-  <si>
-    <t>Pakketselectieproces</t>
-  </si>
-  <si>
-    <t>Adviseren onderdeelselectie</t>
-  </si>
-  <si>
-    <t>pa-14</t>
-  </si>
-  <si>
-    <t>Vaststellen kwaliteit</t>
-  </si>
-  <si>
-    <t>ov-16</t>
-  </si>
-  <si>
-    <t>Opstellen teststrategie</t>
-  </si>
-  <si>
-    <t>to-1</t>
-  </si>
-  <si>
-    <t>Uitvoeren analyse</t>
-  </si>
-  <si>
-    <t>pu-13</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Requirementsanalyseproces</t>
-  </si>
-  <si>
-    <t>Beheren requirements</t>
-  </si>
-  <si>
-    <t>rb-12</t>
-  </si>
-  <si>
-    <t>Valideren requirements</t>
-  </si>
-  <si>
-    <t>rv-11</t>
-  </si>
-  <si>
-    <t>Specifieren requirements</t>
-  </si>
-  <si>
-    <t>rs-10</t>
-  </si>
-  <si>
-    <t>Analyseren requirements</t>
-  </si>
-  <si>
-    <t>ra-9</t>
-  </si>
-  <si>
-    <t>Verzamelen requirements</t>
-  </si>
-  <si>
-    <t>rv-8</t>
-  </si>
-  <si>
-    <t>Definiëren probleemdomein</t>
-  </si>
-  <si>
-    <t>rd-7</t>
-  </si>
-  <si>
-    <t>Overkoepelend</t>
-  </si>
-  <si>
-    <t>Managen ontwikkelproces</t>
-  </si>
-  <si>
-    <t>bm-22</t>
-  </si>
-  <si>
-    <t>Status opties</t>
-  </si>
-  <si>
-    <t>Prioriteit opties</t>
-  </si>
-  <si>
-    <t>Open</t>
+    <t>S</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Les1</t>
+  </si>
+  <si>
+    <t>WEEK2</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Les2</t>
+  </si>
+  <si>
+    <t>Constructors</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>ReferenceTypes</t>
+  </si>
+  <si>
+    <t>Inheritance-AbstractClasses</t>
+  </si>
+  <si>
+    <t>Les3</t>
+  </si>
+  <si>
+    <t>WEEK3</t>
+  </si>
+  <si>
+    <t>Polymorphism-Interfaces</t>
+  </si>
+  <si>
+    <t>Generic-Type</t>
+  </si>
+  <si>
+    <t>Generic-Methods</t>
+  </si>
+  <si>
+    <t>Unit-Testing</t>
+  </si>
+  <si>
+    <t>Mocking</t>
+  </si>
+  <si>
+    <t>Exceptions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,8 +756,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,8 +908,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -831,18 +934,66 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
       <right style="thin">
-        <color rgb="FF44B3E1"/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -893,9 +1044,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -906,11 +1054,116 @@
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF395766"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B4310"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1131,42 +1384,6 @@
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -1511,39 +1728,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E360DEF2-F1B2-4BA5-8E91-707378BF0670}" name="Tabel1" displayName="Tabel1" ref="A1:P56" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A1:P56" xr:uid="{E360DEF2-F1B2-4BA5-8E91-707378BF0670}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{01821328-B213-44FD-94CD-FED343C81C8A}" name="Id" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{0FDDFDAE-5FC2-4F3A-8DA5-1B3F9DB45F76}" name="TC-1" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{C799B5A4-897C-4D60-9851-B41D350A4F78}" name="TC-2" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{78CA1916-677B-40F8-B304-2AB893A47734}" name="Proces" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{BF02225B-B7B5-43B3-B9DD-63FAD1DC204F}" name="Processtap" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{B40FD5EA-7721-4103-84B2-986C3921ACC9}" name="Onderwerp" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{D14EB983-5481-4631-8E81-6D17016DE01D}" name="PS" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{E459A4F0-BDDE-4B8A-9241-6DC8BFCE479D}" name="LT" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{5847A866-5B36-4E01-B9F7-DF778BFA2B67}" name="OI" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{57030284-157B-4D86-9EED-6B2C9FF00B73}" name="PI" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{61BCC077-D4CC-4BC4-A037-110BF7035EBF}" name="DT" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{8F133939-2BAF-4FEF-90E3-5133EEA071A6}" name="Auteur" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{7D8294B3-78B0-4C81-B48A-34504E05CDAE}" name="Reviewer" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{35EC6C20-3268-4E10-8BF7-8FBFFE466F24}" name="Status" dataDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{FA030D98-FF79-4C7B-BDD9-998488FCB84F}" name="Catalogus Id" dataDxfId="14"/>
-    <tableColumn id="16" xr3:uid="{FBDEE4B1-7948-4022-A306-FB2DF65687C2}" name="Prio" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E360DEF2-F1B2-4BA5-8E91-707378BF0670}" name="Tabel1" displayName="Tabel1" ref="A1:N72" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="A1:N72" xr:uid="{E360DEF2-F1B2-4BA5-8E91-707378BF0670}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{01821328-B213-44FD-94CD-FED343C81C8A}" name="Id" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{0FDDFDAE-5FC2-4F3A-8DA5-1B3F9DB45F76}" name="TC-1" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{C799B5A4-897C-4D60-9851-B41D350A4F78}" name="TC-2" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{78CA1916-677B-40F8-B304-2AB893A47734}" name="Proces" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{BF02225B-B7B5-43B3-B9DD-63FAD1DC204F}" name="Processtap" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{B40FD5EA-7721-4103-84B2-986C3921ACC9}" name="Onderwerp" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{D14EB983-5481-4631-8E81-6D17016DE01D}" name="PS" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{E459A4F0-BDDE-4B8A-9241-6DC8BFCE479D}" name="LT" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{5847A866-5B36-4E01-B9F7-DF778BFA2B67}" name="OI" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{57030284-157B-4D86-9EED-6B2C9FF00B73}" name="PI" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{61BCC077-D4CC-4BC4-A037-110BF7035EBF}" name="DT" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{8F133939-2BAF-4FEF-90E3-5133EEA071A6}" name="Auteur" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{7D8294B3-78B0-4C81-B48A-34504E05CDAE}" name="Reviewer" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{35EC6C20-3268-4E10-8BF7-8FBFFE466F24}" name="Status" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A682B7F-49AE-4DC6-9468-B67CCC93E610}" name="Tabel2" displayName="Tabel2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2A682B7F-49AE-4DC6-9468-B67CCC93E610}" name="Tabel2" displayName="Tabel2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:E29" xr:uid="{2A682B7F-49AE-4DC6-9468-B67CCC93E610}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E0D87A47-D7F7-498A-A22E-05A996992FE5}" name="Id" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{A3888C5B-B532-4621-A573-477CB568DA88}" name="SSDLC" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E1227983-22D3-4B85-9382-7BE0428CF806}" name="Proces" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{25EAD8F8-D89A-4F34-8AE3-23D6D7363D47}" name="Processtap" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{DCD8D2DD-F7D1-48E7-8B06-F484930BAD1C}" name="Taxonomiecode-deel-1" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{E0D87A47-D7F7-498A-A22E-05A996992FE5}" name="Id" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{A3888C5B-B532-4621-A573-477CB568DA88}" name="SSDLC" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{E1227983-22D3-4B85-9382-7BE0428CF806}" name="Proces" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{25EAD8F8-D89A-4F34-8AE3-23D6D7363D47}" name="Processtap" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{DCD8D2DD-F7D1-48E7-8B06-F484930BAD1C}" name="Taxonomiecode-deel-1" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1866,17 +2081,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC125E6-F660-4D9F-8B64-6A9882FA616A}">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
@@ -1884,10 +2099,9 @@
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1930,2467 +2144,3037 @@
       <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="M5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f t="shared" ref="A6:A68" si="0">A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <f t="shared" ref="A6:A56" si="0">A5+1</f>
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="N24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I25" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="N25" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="N26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J27" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N28" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="N29" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J30" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="N30" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J31" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N32" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J36" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J37" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="J38" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="N38" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="J39" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="M39" s="2"/>
       <c r="N39" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I40" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J40" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I41" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J41" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I42" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J42" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="N42" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I43" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I44" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="J44" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="K44" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="J44" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I45" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="J45" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="K45" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="J45" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-    </row>
-    <row r="46" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G46" s="40"/>
-      <c r="H46" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F46" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="39"/>
+      <c r="H46" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I47" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J47" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I48" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J48" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K48" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
       <c r="N48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O48" s="1">
-        <v>74</v>
-      </c>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I49" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K49" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
       <c r="N49" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O49" s="1"/>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E50" s="16" t="s">
-        <v>90</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I50" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K50" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
       <c r="N50" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P50" s="2"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E51" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I51" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J51" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K51" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I52" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J52" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K52" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
       <c r="N52" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O52" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="P52" s="2"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I53" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J53" s="33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K53" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N53" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P53" s="2"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f>A54+1</f>
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K54" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>118</v>
+        <v>18</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I55" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J55" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K55" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="M55" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="N55" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>124</v>
+      <c r="F56" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I56" s="33" t="s">
+      <c r="E58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="33" t="s">
+      <c r="E61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K56" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N56" s="2" t="s">
+      <c r="M64" s="2"/>
+      <c r="N64" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="M66" s="2"/>
+      <c r="N66" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" ref="A69:A72" si="1">A68+1</f>
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="P56" s="2"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="3"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C55:C56 H1:K1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="C57:C58 H1:K1048576">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"X,X,X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
       <formula>"In pull request"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"Branch"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
       <formula>"On hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Doorgevoerd"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4401,24 +5185,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1FC694B2-9BFE-4BCC-81E1-0A0A5328629A}">
           <x14:formula1>
             <xm:f>Configuratie!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>N1:N1048576</xm:sqref>
+          <xm:sqref>N1:N71 N73:N1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{152E1D33-79FC-47AF-B94E-515BD2C5BB11}">
           <x14:formula1>
             <xm:f>Taxonomiecodes!$E$2:$E$29</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F0E077B9-D519-419E-AEFA-058508ACEAE6}">
-          <x14:formula1>
-            <xm:f>Configuratie!$B$2:$B$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>P1:P1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BB3D9382-91E5-40FE-9CDF-0E44E30254B7}">
           <x14:formula1>
@@ -4442,7 +5220,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415DE74F-AEED-4214-AED9-C4A99E562FBF}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4458,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>3</v>
@@ -4467,7 +5247,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4475,16 +5255,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4492,16 +5272,16 @@
         <v>27</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4509,16 +5289,16 @@
         <v>26</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4526,16 +5306,16 @@
         <v>25</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4543,16 +5323,16 @@
         <v>24</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4560,16 +5340,16 @@
         <v>23</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4577,16 +5357,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4594,16 +5374,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4611,16 +5391,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4628,16 +5408,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4645,16 +5425,16 @@
         <v>28</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4662,16 +5442,16 @@
         <v>21</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4679,16 +5459,16 @@
         <v>20</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4696,16 +5476,16 @@
         <v>19</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4713,16 +5493,16 @@
         <v>18</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4730,16 +5510,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4747,16 +5527,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4764,16 +5544,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4781,16 +5561,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4798,16 +5578,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4815,16 +5595,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C22" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>90</v>
-      </c>
       <c r="E22" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4832,16 +5612,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4849,16 +5629,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4866,16 +5646,16 @@
         <v>10</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4883,16 +5663,16 @@
         <v>9</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4900,16 +5680,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4917,16 +5697,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4934,16 +5714,16 @@
         <v>22</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4968,15 +5748,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4984,7 +5764,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4992,7 +5772,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5000,7 +5780,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5008,7 +5788,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5051,6 +5831,1115 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB98F370-98D4-462C-8B28-4111C8FFA3A0}">
+  <dimension ref="A1:Q29"/>
+  <sheetViews>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="45">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="49"/>
+      <c r="P2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>2</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="49"/>
+      <c r="P3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="49"/>
+      <c r="P4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="46">
+        <v>4</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="50"/>
+      <c r="P5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="50"/>
+      <c r="P6" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="50"/>
+      <c r="P7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="46">
+        <v>7</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="50"/>
+      <c r="P8" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="46">
+        <v>8</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="50"/>
+      <c r="P9" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="46">
+        <v>9</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="50"/>
+      <c r="P10" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="47">
+        <v>10</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="51"/>
+      <c r="P11" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="47">
+        <v>11</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="51"/>
+      <c r="P12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="47">
+        <v>12</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="51"/>
+      <c r="P13" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="47">
+        <v>13</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="51"/>
+      <c r="P14" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="46">
+        <v>14</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="50"/>
+      <c r="P15" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="46">
+        <v>15</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="50"/>
+      <c r="P16" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="46">
+        <v>16</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="50"/>
+      <c r="P17" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="45">
+        <v>17</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="45">
+        <v>18</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="45">
+        <v>19</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="45">
+        <v>20</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="45">
+        <v>21</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="45">
+        <v>22</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="45">
+        <v>23</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="45">
+        <v>24</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F27" s="44"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F29" s="43"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:XFD11 A12:E12 G12:XFD12 A13:XFD1048576">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$P1="Les 1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="7" priority="13">
+      <formula>$P14="Les 1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:K1">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"X,X,X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"In pull request"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+      <formula>"Branch"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"On hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"Doorgevoerd"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>"Les1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A540FCA5-013A-47D1-91BD-440529D4ED80}">
+          <x14:formula1>
+            <xm:f>Taxonomiecodes!$D$2:$D$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6C5FA951-02FF-43D4-AC48-B22E09F30D77}">
+          <x14:formula1>
+            <xm:f>Taxonomiecodes!$C$2:$C$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E79B8DDA-253B-46C7-8366-74C3E0A49EEB}">
+          <x14:formula1>
+            <xm:f>Taxonomiecodes!$E$2:$E$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{53EA96C2-6FE2-4334-969A-624D4CFEB7FE}">
+          <x14:formula1>
+            <xm:f>Configuratie!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>N1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5064,6 +6953,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100515BA15BA15D264586723D52FB60ADE3" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8145e89f48f7544065c1631cfb4174b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xmlns:ns3="030eaba2-629b-4e56-920e-8dcc1358a952" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="73b179456a9f02424ae4d9487a76703b" ns2:_="" ns3:_="">
     <xsd:import namespace="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
@@ -5298,17 +7198,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="030eaba2-629b-4e56-920e-8dcc1358a952">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B0455E-EE44-411A-9909-1872C21A7AE8}">
   <ds:schemaRefs>
@@ -5318,6 +7207,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="030eaba2-629b-4e56-920e-8dcc1358a952"/>
+    <ds:schemaRef ds:uri="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{869E5174-4466-4E4F-B92A-08A1A2EBCF8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5336,23 +7236,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D83BA7-0BB7-4894-A3C1-EDDBDFCC6BB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="030eaba2-629b-4e56-920e-8dcc1358a952"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bb274f1b-0e95-4afa-93a7-e92bcbf9a51a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e36377b7-70c4-4493-a338-095918d327e9}" enabled="0" method="" siteId="{e36377b7-70c4-4493-a338-095918d327e9}" removed="1"/>
